--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,609 +454,224 @@
           <t>birth_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>pesel</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>street_name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>house_number</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>post_code</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>county</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>voivodeship</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Paulina</t>
+          <t>Krzysztof</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KLECHA</t>
+          <t>ŁUSZCZEK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>580690437</t>
+          <t>658224163</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.8.1986</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86081413661</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Włodzimierza Godka</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>60 / 57</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>00-464</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Warszawa</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Miasto Warszawa na prawach powiatu</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Województwo mazowieckie</t>
+          <t>30.8.1923</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gabriela</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SZOPIŃSKA</t>
+          <t>MYCEK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>819725545</t>
+          <t>716385587</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.7.1986</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86071871404</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gryficka</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>79e</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>61-397</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Poznań</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Miasto Poznań na prawach powiatu</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Województwo wielkopolskie</t>
+          <t>27.9.1942</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Janina</t>
+          <t>Dominika</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZGIERSKA</t>
+          <t>GĄSIOR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>669517667</t>
+          <t>881029663</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.6.1950</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50061179524</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Erazma Pietrygi</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>89 / 99</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>81-376</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Gdynia</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Miasto Gdynia na prawach powiatu</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Województwo pomorskie</t>
+          <t>2.10.1983</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dariusz</t>
+          <t>Gabriel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GRONEK</t>
+          <t>GAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>738728845</t>
+          <t>776670404</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.1.1982</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82011865214</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Okrajnicka</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>45 / 49</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>85-420</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Bydgoszcz</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Miasto Bydgoszcz na prawach powiatu</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Województwo kujawsko-pomorskie</t>
+          <t>24.3.1957</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kacper</t>
+          <t>Hanna</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>STOŁOWSKI</t>
+          <t>GRZENIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>688757510</t>
+          <t>835552770</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.9.1935</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>35092315652</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>dr Antoniego Artymiaka</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>15e / 70</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>40-665</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Katowice</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Miasto Katowice na prawach powiatu</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Województwo śląskie</t>
+          <t>14.4.1987</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alicja</t>
+          <t>Mikołaj</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LEŚNIKOWSKA</t>
+          <t>FIDOS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>514892752</t>
+          <t>573233109</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.12.1971</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>7112843441</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ludwika Hieronima Morstina</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>15-662</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Białystok</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Miasto Białystok na prawach powiatu</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Województwo podlaskie</t>
+          <t>29.11.1929</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nikola</t>
+          <t>Wiesława</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SOKAL</t>
+          <t>KITA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>749104140</t>
+          <t>823762641</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>28.1.1999</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99012897985</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Krzysztofa Spałka</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>9 / 89</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>31-228</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Kraków</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Miasto Kraków na prawach powiatu</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Województwo małopolskie</t>
+          <t>15.10.1927</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tymoteusz</t>
+          <t>Kacper</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BARGIEŁ</t>
+          <t>SKAŁKA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>719054126</t>
+          <t>664736566</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.1.1966</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>66011539416</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Potulicka</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>70 / 77</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>31-435</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Kraków</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Miasto Kraków na prawach powiatu</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Województwo małopolskie</t>
+          <t>28.9.1964</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Andrzej</t>
+          <t>Leon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JANY</t>
+          <t>WINIAREK</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>800124633</t>
+          <t>513118036</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24.7.1980</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80072435194</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Pszczółki Mai</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>94-249</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Łódź</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Miasto Łódź na prawach powiatu</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Województwo łódzkie</t>
+          <t>28.4.1927</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Martyna</t>
+          <t>Wiesław</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GAŁUSZKA</t>
+          <t>ŚWIĘS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>799793275</t>
+          <t>701598683</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>20.12.1955</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>55122087769</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Okszówek</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>09-471</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Miszewo Murowane</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Powiat płocki</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Województwo mazowieckie</t>
+          <t>14.11.1930</t>
         </is>
       </c>
     </row>

--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,224 +454,96 @@
           <t>birth_date</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pesel</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>street_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>house_number</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>post_code</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>county</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>voivodeship</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Krzysztof</t>
+          <t>Iwona</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ŁUSZCZEK</t>
+          <t>GAJDZIK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>658224163</t>
+          <t>768349434</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.8.1923</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MYCEK</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>716385587</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.9.1942</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Dominika</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GĄSIOR</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>881029663</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.10.1983</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Gabriel</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GAL</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>776670404</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24.3.1957</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Hanna</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GRZENIA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>835552770</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.4.1987</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mikołaj</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>FIDOS</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>573233109</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>29.11.1929</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Wiesława</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>KITA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>823762641</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>15.10.1927</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Kacper</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SKAŁKA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>664736566</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>28.9.1964</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Leon</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WINIAREK</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>513118036</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>28.4.1927</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Wiesław</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ŚWIĘS</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>701598683</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14.11.1930</t>
+          <t>20.6.1974</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74062025763</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5 / 39</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>80-117</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Gdańsk</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Miasto Gdańsk na prawach powiatu</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Województwo pomorskie</t>
         </is>
       </c>
     </row>
